--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll3-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll3-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll3</t>
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H2">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I2">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J2">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N2">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O2">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P2">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q2">
-        <v>6.086459160046221</v>
+        <v>60.87064786128278</v>
       </c>
       <c r="R2">
-        <v>54.778132440416</v>
+        <v>547.835830751545</v>
       </c>
       <c r="S2">
-        <v>0.101255605914334</v>
+        <v>0.4200926721153931</v>
       </c>
       <c r="T2">
-        <v>0.101255605914334</v>
+        <v>0.4200926721153932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H3">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I3">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J3">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P3">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q3">
-        <v>0.366135835331111</v>
+        <v>3.616729695146111</v>
       </c>
       <c r="R3">
-        <v>3.29522251798</v>
+        <v>32.550567256315</v>
       </c>
       <c r="S3">
-        <v>0.006091112234312755</v>
+        <v>0.02496049730595067</v>
       </c>
       <c r="T3">
-        <v>0.006091112234312754</v>
+        <v>0.02496049730595068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H4">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I4">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J4">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N4">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q4">
-        <v>0.09411852623822221</v>
+        <v>1.109006115398333</v>
       </c>
       <c r="R4">
-        <v>0.847066736144</v>
+        <v>9.981055038585001</v>
       </c>
       <c r="S4">
-        <v>0.001565775461794598</v>
+        <v>0.007653694494458103</v>
       </c>
       <c r="T4">
-        <v>0.001565775461794598</v>
+        <v>0.007653694494458104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H5">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I5">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J5">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N5">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O5">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P5">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q5">
-        <v>0.2381440341097777</v>
+        <v>0.8641894959559999</v>
       </c>
       <c r="R5">
-        <v>2.143296306988</v>
+        <v>7.777705463604</v>
       </c>
       <c r="S5">
-        <v>0.003961813894515025</v>
+        <v>0.005964117145549962</v>
       </c>
       <c r="T5">
-        <v>0.003961813894515025</v>
+        <v>0.005964117145549962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>2.951322</v>
       </c>
       <c r="I6">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J6">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N6">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O6">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P6">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q6">
-        <v>45.31239171084267</v>
+        <v>45.87608863812334</v>
       </c>
       <c r="R6">
-        <v>407.811525397584</v>
+        <v>412.88479774311</v>
       </c>
       <c r="S6">
-        <v>0.7538264132662278</v>
+        <v>0.3166092252888619</v>
       </c>
       <c r="T6">
-        <v>0.7538264132662277</v>
+        <v>0.3166092252888619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>2.951322</v>
       </c>
       <c r="I7">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J7">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P7">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q7">
         <v>2.725803287863333</v>
@@ -883,10 +883,10 @@
         <v>24.53222959077</v>
       </c>
       <c r="S7">
-        <v>0.04534703285740763</v>
+        <v>0.01881185804805233</v>
       </c>
       <c r="T7">
-        <v>0.04534703285740762</v>
+        <v>0.01881185804805233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>2.951322</v>
       </c>
       <c r="I8">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J8">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N8">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q8">
-        <v>0.7006923756506667</v>
+        <v>0.83581930927</v>
       </c>
       <c r="R8">
-        <v>6.306231380856</v>
+        <v>7.522373783430002</v>
       </c>
       <c r="S8">
-        <v>0.01165686472059127</v>
+        <v>0.005768323147094512</v>
       </c>
       <c r="T8">
-        <v>0.01165686472059127</v>
+        <v>0.005768323147094512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>2.951322</v>
       </c>
       <c r="I9">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J9">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N9">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O9">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P9">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q9">
-        <v>1.772931596751333</v>
+        <v>0.651309544248</v>
       </c>
       <c r="R9">
-        <v>15.956384370762</v>
+        <v>5.861785898232</v>
       </c>
       <c r="S9">
-        <v>0.02949486037007445</v>
+        <v>0.00449494750640617</v>
       </c>
       <c r="T9">
-        <v>0.02949486037007445</v>
+        <v>0.004494947506406172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H10">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I10">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J10">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N10">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O10">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P10">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q10">
-        <v>2.523598751040889</v>
+        <v>9.090246636387779</v>
       </c>
       <c r="R10">
-        <v>22.712388759368</v>
+        <v>81.81221972749</v>
       </c>
       <c r="S10">
-        <v>0.04198311594673729</v>
+        <v>0.06273542559248901</v>
       </c>
       <c r="T10">
-        <v>0.04198311594673728</v>
+        <v>0.06273542559248903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H11">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I11">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J11">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P11">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q11">
-        <v>0.1518091081294445</v>
+        <v>0.5401119603811111</v>
       </c>
       <c r="R11">
-        <v>1.366281973165</v>
+        <v>4.86100764343</v>
       </c>
       <c r="S11">
-        <v>0.002525528032434019</v>
+        <v>0.003727528532225526</v>
       </c>
       <c r="T11">
-        <v>0.002525528032434019</v>
+        <v>0.003727528532225527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H12">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I12">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J12">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N12">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q12">
-        <v>0.03902390355688889</v>
+        <v>0.1656157682633334</v>
       </c>
       <c r="R12">
-        <v>0.351215132012</v>
+        <v>1.49054191437</v>
       </c>
       <c r="S12">
-        <v>0.0006492098108098226</v>
+        <v>0.001142980616745505</v>
       </c>
       <c r="T12">
-        <v>0.0006492098108098224</v>
+        <v>0.001142980616745505</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H13">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I13">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J13">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N13">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O13">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P13">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q13">
-        <v>0.09874049447211111</v>
+        <v>0.129055561832</v>
       </c>
       <c r="R13">
-        <v>0.888664450249</v>
+        <v>1.161500056488</v>
       </c>
       <c r="S13">
-        <v>0.00164266749076135</v>
+        <v>0.000890664018311562</v>
       </c>
       <c r="T13">
-        <v>0.00164266749076135</v>
+        <v>0.0008906640183115623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.085542</v>
+      </c>
+      <c r="I14">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J14">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>46.63275166666667</v>
+      </c>
+      <c r="N14">
+        <v>139.898255</v>
+      </c>
+      <c r="O14">
+        <v>0.9158911059585902</v>
+      </c>
+      <c r="P14">
+        <v>0.9158911059585902</v>
+      </c>
+      <c r="Q14">
+        <v>16.87393683657889</v>
+      </c>
+      <c r="R14">
+        <v>151.86543152921</v>
+      </c>
+      <c r="S14">
+        <v>0.1164537829618462</v>
+      </c>
+      <c r="T14">
+        <v>0.1164537829618462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.085542</v>
+      </c>
+      <c r="I15">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J15">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.770761666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.312284999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.05441917700612491</v>
+      </c>
+      <c r="P15">
+        <v>0.05441917700612491</v>
+      </c>
+      <c r="Q15">
+        <v>1.002592720385556</v>
+      </c>
+      <c r="R15">
+        <v>9.023334483469998</v>
+      </c>
+      <c r="S15">
+        <v>0.006919293119896379</v>
+      </c>
+      <c r="T15">
+        <v>0.00691929311989638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.085542</v>
+      </c>
+      <c r="I16">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J16">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8496050000000001</v>
+      </c>
+      <c r="N16">
+        <v>2.548815</v>
+      </c>
+      <c r="O16">
+        <v>0.01668667696558362</v>
+      </c>
+      <c r="P16">
+        <v>0.01668667696558362</v>
+      </c>
+      <c r="Q16">
+        <v>0.3074273036366667</v>
+      </c>
+      <c r="R16">
+        <v>2.76684573273</v>
+      </c>
+      <c r="S16">
+        <v>0.002121678707285505</v>
+      </c>
+      <c r="T16">
+        <v>0.002121678707285505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.085542</v>
+      </c>
+      <c r="I17">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J17">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.662052</v>
+      </c>
+      <c r="N17">
+        <v>1.986156</v>
+      </c>
+      <c r="O17">
+        <v>0.01300304006970129</v>
+      </c>
+      <c r="P17">
+        <v>0.0130030400697013</v>
+      </c>
+      <c r="Q17">
+        <v>0.239561750728</v>
+      </c>
+      <c r="R17">
+        <v>2.156055756552</v>
+      </c>
+      <c r="S17">
+        <v>0.001653311399433599</v>
+      </c>
+      <c r="T17">
+        <v>0.001653311399433599</v>
       </c>
     </row>
   </sheetData>
